--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 6.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
